--- a/Tutorial/Tutorial 2/KIT205_Week3 .xlsx
+++ b/Tutorial/Tutorial 2/KIT205_Week3 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phong/Desktop/School Unit/KIT205/Tutorial/Tutorial 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3254FEEA-F424-8F43-8E3B-79A7DC8F9596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C398BEAD-8CA4-8D42-A1B0-4B8F4082FC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="22360" windowWidth="20920" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1444,16 +1444,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1293</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1747,7 +1747,7 @@
   <dimension ref="A2:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
